--- a/modelagem/Resultados_2018 1ª abordagem/6. Junho/resultados.xlsx
+++ b/modelagem/Resultados_2018 1ª abordagem/6. Junho/resultados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,887 +436,720 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Modelo Individual Treino</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>ativos</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Modelo Individual Teste</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Modelo por grupos Teste</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Modelo com a Média Teste</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>0.1419427617672459</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>ABEV3</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>1.573464816840096</v>
-      </c>
       <c r="C2" t="n">
-        <v>0.678595280076943</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.5449908754084988</v>
+        <v>0.1122186539011787</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>0.2048083931003256</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>B3SA3</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>1.880734627993437</v>
-      </c>
       <c r="C3" t="n">
-        <v>1.923137541827625</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.987515805797791</v>
+        <v>0.2049319403942552</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>0.2883308952301582</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>BBAS3</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>1.031629088498499</v>
-      </c>
       <c r="C4" t="n">
-        <v>0.9895907258989155</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.178781858007862</v>
+        <v>0.2250324468945551</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>0.2243259526768105</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>BBDC3</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.9408505806734241</v>
-      </c>
       <c r="C5" t="n">
-        <v>0.6279788658546922</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.031987315544204</v>
+        <v>0.1404147306648332</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>0.1879510504029522</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>BBDC4</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>1.944389425981327</v>
-      </c>
       <c r="C6" t="n">
-        <v>1.263346628525994</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.248813818799437</v>
+        <v>0.181218851974102</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>0.16199046110162</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>BEEF3</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>1.736304092537621</v>
-      </c>
       <c r="C7" t="n">
-        <v>2.123871168822438</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.867737270674259</v>
+        <v>0.08370293215761852</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>0.05382389186070458</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>BRAP4</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>0.6014176947089606</v>
-      </c>
       <c r="C8" t="n">
-        <v>0.3683764038976509</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.816254219071049</v>
+        <v>0.1254004616567646</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>0.2468992999432295</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>BRFS3</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>1.991620255287098</v>
-      </c>
       <c r="C9" t="n">
-        <v>2.003210039603447</v>
-      </c>
-      <c r="D9" t="n">
-        <v>3.40976959231873</v>
+        <v>0.1650341076684681</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>0.1278300197977891</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>BRKM5</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>0.4179446352895324</v>
-      </c>
       <c r="C10" t="n">
-        <v>0.510148477619834</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.5772911345674251</v>
+        <v>0.05280978986041444</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>0.1669342387515015</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>CCRO3</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>0.9905840330177478</v>
-      </c>
       <c r="C11" t="n">
-        <v>0.7156248092771706</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.7611712772740159</v>
+        <v>0.07571769849674</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>0.2266828586969669</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>CIEL3</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>0.8428925151480171</v>
-      </c>
       <c r="C12" t="n">
-        <v>0.9036088732912004</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.7210966957624351</v>
+        <v>0.04787829487269776</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>0.1970410825795586</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>CMIG4</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>4.431678811270895</v>
-      </c>
       <c r="C13" t="n">
-        <v>2.884641000050014</v>
-      </c>
-      <c r="D13" t="n">
-        <v>2.639073582740962</v>
+        <v>0.1319545153783525</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>0.2592136411437456</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>CPFE3</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>3.222767505544393</v>
-      </c>
       <c r="C14" t="n">
-        <v>4.670145101843475</v>
-      </c>
-      <c r="D14" t="n">
-        <v>3.673110196194785</v>
+        <v>0.154335047413999</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>0.166509483670296</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>CPLE6</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>0.6693081127233527</v>
-      </c>
       <c r="C15" t="n">
-        <v>0.493681587568152</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.4856883804955955</v>
+        <v>0.1235113242399267</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>0.1695913377939266</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>CSAN3</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>1.662844286143634</v>
-      </c>
       <c r="C16" t="n">
-        <v>1.369200825232878</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1.335099366670816</v>
+        <v>0.1476388167937592</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>0.2634793747224723</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>CSNA3</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>2.375541504889894</v>
-      </c>
       <c r="C17" t="n">
-        <v>2.202775490115441</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1.699232852397921</v>
+        <v>0.1499461492549567</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>0.1704522493615885</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>CYRE3</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>0.8442417318054861</v>
-      </c>
       <c r="C18" t="n">
-        <v>0.5263460308348002</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.8731087008154269</v>
+        <v>0.1830768098674604</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>0.3161459513656608</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>EGIE3</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>1087687158964655</v>
-      </c>
       <c r="C19" t="n">
-        <v>203138545456181.8</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1049710648416148</v>
+        <v>0.1991132723173348</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>0.2483248126345014</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>ELET3</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>0.9637135303361399</v>
-      </c>
       <c r="C20" t="n">
-        <v>0.6333690657924871</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.6377048555680561</v>
+        <v>0.02245346014674284</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="n">
+        <v>0.234030514687753</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>ELET6</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>6.557670682273643</v>
-      </c>
       <c r="C21" t="n">
-        <v>2.805370973955101</v>
-      </c>
-      <c r="D21" t="n">
-        <v>2.947464176921375</v>
+        <v>0.1231447309079645</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" t="n">
+        <v>0.03073567086945529</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>EMBR3</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>2.496330975294387</v>
-      </c>
       <c r="C22" t="n">
-        <v>1.601722675078395</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1.629885555140399</v>
+        <v>0.03825692045864327</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" t="n">
+        <v>0.2750460185572445</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>ENBR3</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>4.959464983983114</v>
-      </c>
       <c r="C23" t="n">
-        <v>3.098097732554579</v>
-      </c>
-      <c r="D23" t="n">
-        <v>3.01771782546337</v>
+        <v>0.2034631623940345</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" t="n">
+        <v>0.1992394641760818</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>ENEV3</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>0.4772133696723039</v>
-      </c>
       <c r="C24" t="n">
-        <v>0.4142662449966241</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.2788011050085181</v>
+        <v>0.1046415455352814</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" t="n">
+        <v>0.33359316819331</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>ENGI11</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>1.208145304548336</v>
-      </c>
       <c r="C25" t="n">
-        <v>0.9493757891685952</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1.492146336983572</v>
+        <v>0.1420671484713676</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" t="n">
+        <v>0.16629235796405</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>EQTL3</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>0.3726836480082538</v>
-      </c>
       <c r="C26" t="n">
-        <v>0.3053835566797113</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.474895982925404</v>
+        <v>0.1371291937273224</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" t="n">
+        <v>0.2517119712788431</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>EZTC3</t>
         </is>
       </c>
-      <c r="B27" t="n">
-        <v>0.7909397432291133</v>
-      </c>
       <c r="C27" t="n">
-        <v>0.4093785856682372</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1.034692574681836</v>
+        <v>0.08523186859469334</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" t="n">
+        <v>0.06424045817575294</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>FLRY3</t>
         </is>
       </c>
-      <c r="B28" t="n">
-        <v>18.07927820695341</v>
-      </c>
       <c r="C28" t="n">
-        <v>21.76684661307791</v>
-      </c>
-      <c r="D28" t="n">
-        <v>22.76365992186073</v>
+        <v>0.05977543656385759</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" t="n">
+        <v>0.1182905553009316</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>GGBR4</t>
         </is>
       </c>
-      <c r="B29" t="n">
-        <v>1.326249926412967</v>
-      </c>
       <c r="C29" t="n">
-        <v>1.378676690277614</v>
-      </c>
-      <c r="D29" t="n">
-        <v>1.761946769344605</v>
+        <v>0.02145921159085771</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" t="n">
+        <v>0.0557604230730491</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>GOAU4</t>
         </is>
       </c>
-      <c r="B30" t="n">
-        <v>4.068606078741841</v>
-      </c>
       <c r="C30" t="n">
-        <v>2.891369311960814</v>
-      </c>
-      <c r="D30" t="n">
-        <v>4.330856197354034</v>
+        <v>0.03682794188923411</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" t="n">
+        <v>0.2268201588431907</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>GOLL4</t>
         </is>
       </c>
-      <c r="B31" t="n">
-        <v>0.5124066661062688</v>
-      </c>
       <c r="C31" t="n">
-        <v>0.3090386654077698</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.565687009278756</v>
+        <v>0.1028505865585662</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" t="n">
+        <v>0.1409932609689554</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>HYPE3</t>
         </is>
       </c>
-      <c r="B32" t="n">
-        <v>5.905657596592373</v>
-      </c>
       <c r="C32" t="n">
-        <v>3.921065229663864</v>
-      </c>
-      <c r="D32" t="n">
-        <v>4.305036119265776</v>
+        <v>0.1111006211282852</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" t="n">
+        <v>0.1532241998651414</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>ITSA4</t>
         </is>
       </c>
-      <c r="B33" t="n">
-        <v>2.616489691830861</v>
-      </c>
       <c r="C33" t="n">
-        <v>1.196730058773751</v>
-      </c>
-      <c r="D33" t="n">
-        <v>1.217018715397609</v>
+        <v>0.1296239862549259</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" t="n">
+        <v>0.1583553968000731</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>ITUB4</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>1.16034409572751</v>
-      </c>
       <c r="C34" t="n">
-        <v>1.303160202887672</v>
-      </c>
-      <c r="D34" t="n">
-        <v>2.57803527606445</v>
+        <v>0.1519318810780698</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" t="n">
+        <v>0.3284322796962125</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>JBSS3</t>
         </is>
       </c>
-      <c r="B35" t="n">
-        <v>4.883625869400008</v>
-      </c>
       <c r="C35" t="n">
-        <v>2.515757282683721</v>
-      </c>
-      <c r="D35" t="n">
-        <v>1.277518348082754</v>
+        <v>0.1410816136644681</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" t="n">
+        <v>0.1889063236527561</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>JHSF3</t>
         </is>
       </c>
-      <c r="B36" t="n">
-        <v>1.027403541840897</v>
-      </c>
       <c r="C36" t="n">
-        <v>0.7062665903031773</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.5936779227843386</v>
+        <v>0.1635402118491829</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" t="n">
+        <v>0.2928339491397336</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>LREN3</t>
         </is>
       </c>
-      <c r="B37" t="n">
-        <v>1.226142700206045</v>
-      </c>
       <c r="C37" t="n">
-        <v>0.9088627185851766</v>
-      </c>
-      <c r="D37" t="n">
-        <v>1.228874739732569</v>
+        <v>0.2284476583422988</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" t="n">
+        <v>0.1129178336393936</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>MRFG3</t>
         </is>
       </c>
-      <c r="B38" t="n">
-        <v>1.414264240428475</v>
-      </c>
       <c r="C38" t="n">
-        <v>1.672731231155772</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.9743911860021088</v>
+        <v>0.1208009645847021</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" t="n">
+        <v>0.1660288171071225</v>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>MRVE3</t>
         </is>
       </c>
-      <c r="B39" t="n">
-        <v>0.9380134310150622</v>
-      </c>
       <c r="C39" t="n">
-        <v>1.051279643671149</v>
-      </c>
-      <c r="D39" t="n">
-        <v>1.318639986019476</v>
+        <v>0.1207110861551632</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" t="n">
+        <v>0.2546320603781249</v>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>MULT3</t>
         </is>
       </c>
-      <c r="B40" t="n">
-        <v>2.640975117590132</v>
-      </c>
       <c r="C40" t="n">
-        <v>1.708049299408736</v>
-      </c>
-      <c r="D40" t="n">
-        <v>5.943794913182382</v>
+        <v>0.1636789097328689</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" t="n">
+        <v>0.1217986146529139</v>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>PETR3</t>
         </is>
       </c>
-      <c r="B41" t="n">
-        <v>0.966067956625128</v>
-      </c>
       <c r="C41" t="n">
-        <v>0.8371954128174585</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.7651682471486021</v>
+        <v>0.1928522315473854</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" t="n">
+        <v>0.2221415392067658</v>
+      </c>
+      <c r="B42" t="inlineStr">
         <is>
           <t>PETR4</t>
         </is>
       </c>
-      <c r="B42" t="n">
-        <v>1.146984962897144</v>
-      </c>
       <c r="C42" t="n">
-        <v>0.6629669663165401</v>
-      </c>
-      <c r="D42" t="n">
-        <v>1.720997584208781</v>
+        <v>0.1970829661035698</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" t="n">
+        <v>0.1343555266733613</v>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t>RADL3</t>
         </is>
       </c>
-      <c r="B43" t="n">
-        <v>0.8427190526819125</v>
-      </c>
       <c r="C43" t="n">
-        <v>0.4297583317336042</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.5398057441883879</v>
+        <v>0.1121240269717372</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" t="n">
+        <v>0.341939860973878</v>
+      </c>
+      <c r="B44" t="inlineStr">
         <is>
           <t>RENT3</t>
         </is>
       </c>
-      <c r="B44" t="n">
-        <v>0.4426324543096252</v>
-      </c>
       <c r="C44" t="n">
-        <v>0.3000490657263675</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.4144286994252024</v>
+        <v>0.1750121098049205</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" t="n">
+        <v>0.2146988775040732</v>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>SANB11</t>
         </is>
       </c>
-      <c r="B45" t="n">
-        <v>4.475124449013225</v>
-      </c>
       <c r="C45" t="n">
-        <v>2.89145889106489</v>
-      </c>
-      <c r="D45" t="n">
-        <v>4.312288232749061</v>
+        <v>0.1895083744706733</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" t="n">
+        <v>0.2106349923929024</v>
+      </c>
+      <c r="B46" t="inlineStr">
         <is>
           <t>SBSP3</t>
         </is>
       </c>
-      <c r="B46" t="n">
-        <v>0.6602281784445936</v>
-      </c>
       <c r="C46" t="n">
-        <v>0.9187107854102796</v>
-      </c>
-      <c r="D46" t="n">
-        <v>1.142792996128741</v>
+        <v>0.2177415404172048</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" t="n">
+        <v>0.2317894499673803</v>
+      </c>
+      <c r="B47" t="inlineStr">
         <is>
           <t>TAEE11</t>
         </is>
       </c>
-      <c r="B47" t="n">
-        <v>0.6398413783396287</v>
-      </c>
       <c r="C47" t="n">
-        <v>0.5654364379450622</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1.097856598655361</v>
+        <v>0.20091861011323</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" t="n">
+        <v>0.03648730104118125</v>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t>TIMS3</t>
         </is>
       </c>
-      <c r="B48" t="n">
-        <v>1.973226180950157</v>
-      </c>
       <c r="C48" t="n">
-        <v>1.206475814999791</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.8495768258922993</v>
+        <v>0.0335705632682734</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" t="n">
+        <v>0.2064098923260201</v>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t>TOTS3</t>
         </is>
       </c>
-      <c r="B49" t="n">
-        <v>0.500108677461628</v>
-      </c>
       <c r="C49" t="n">
-        <v>0.5397576590584543</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.7333035967214843</v>
+        <v>0.1629471260568284</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="A50" t="n">
+        <v>0.1596361879340043</v>
+      </c>
+      <c r="B50" t="inlineStr">
         <is>
           <t>UGPA3</t>
         </is>
       </c>
-      <c r="B50" t="n">
-        <v>1.431462440900008</v>
-      </c>
       <c r="C50" t="n">
-        <v>1.534029999176801</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.9389015325353892</v>
+        <v>0.1306203778966863</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="A51" t="n">
+        <v>0.08630460683045266</v>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t>USIM5</t>
         </is>
       </c>
-      <c r="B51" t="n">
-        <v>1.33224603430539</v>
-      </c>
       <c r="C51" t="n">
-        <v>1.446157908289939</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.9872634413400714</v>
+        <v>0.06978027081757959</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="A52" t="n">
+        <v>0.1402852986832847</v>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>VALE3</t>
         </is>
       </c>
-      <c r="B52" t="n">
-        <v>0.5350483828864691</v>
-      </c>
       <c r="C52" t="n">
-        <v>0.5321534691049478</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.8749244606192769</v>
+        <v>0.1501484902763677</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="A53" t="n">
+        <v>0.08581088459269653</v>
+      </c>
+      <c r="B53" t="inlineStr">
         <is>
           <t>VIVT3</t>
         </is>
       </c>
-      <c r="B53" t="n">
-        <v>4.788931506312802</v>
-      </c>
       <c r="C53" t="n">
-        <v>2.551442371374152</v>
-      </c>
-      <c r="D53" t="n">
-        <v>2.662861786357028</v>
+        <v>0.1081647952515527</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="A54" t="n">
+        <v>0.1407003154787516</v>
+      </c>
+      <c r="B54" t="inlineStr">
         <is>
           <t>WEGE3</t>
         </is>
       </c>
-      <c r="B54" t="n">
-        <v>2.413639257042778</v>
-      </c>
       <c r="C54" t="n">
-        <v>1.605263909863749</v>
-      </c>
-      <c r="D54" t="n">
-        <v>2.121819872793795</v>
+        <v>0.09058839042604604</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="A55" t="n">
+        <v>0.2336233069719443</v>
+      </c>
+      <c r="B55" t="inlineStr">
         <is>
           <t>YDUQ3</t>
         </is>
       </c>
-      <c r="B55" t="n">
-        <v>2.679185468847486</v>
-      </c>
       <c r="C55" t="n">
-        <v>2.191553875066903</v>
-      </c>
-      <c r="D55" t="n">
-        <v>2.405949034895573</v>
+        <v>0.1255064933391916</v>
       </c>
     </row>
   </sheetData>
